--- a/stream-dash/cache.xlsx
+++ b/stream-dash/cache.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="49">
   <si>
     <t>Corretora</t>
   </si>
@@ -43,103 +43,124 @@
     <t>Fundo</t>
   </si>
   <si>
+    <t>KAPITALO KAPPA PREV MASTER FIM</t>
+  </si>
+  <si>
+    <t>KAPITALO K10 PREV MASTER FIM</t>
+  </si>
+  <si>
     <t>KAPITALO ZETA MASTER FIM</t>
   </si>
   <si>
+    <t>KAPITALO OMEGA PREV MASTER FIM</t>
+  </si>
+  <si>
+    <t>KAPITALO ZETA MASTER FIA</t>
+  </si>
+  <si>
     <t>KAPITALO KAPPA MASTER FIM</t>
   </si>
   <si>
-    <t>KAPITALO K10 PREV MASTER FIM</t>
-  </si>
-  <si>
     <t>KAPITALO KAPPA PREV II MASTER FIM</t>
   </si>
   <si>
-    <t>KAPITALO OMEGA PREV MASTER FIM</t>
-  </si>
-  <si>
-    <t>KAPITALO KAPPA PREV MASTER FIM</t>
-  </si>
-  <si>
     <t>KAPITALO K10 PREV II MASTER FIM</t>
   </si>
   <si>
-    <t>KAPITALO SIGMA LLC</t>
-  </si>
-  <si>
     <t>BRADESCO</t>
   </si>
   <si>
+    <t>Doador</t>
+  </si>
+  <si>
     <t>Tomador</t>
   </si>
   <si>
+    <t>Balcão</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>TEND3</t>
-  </si>
-  <si>
-    <t>SIMH3</t>
-  </si>
-  <si>
-    <t>M1TA34</t>
-  </si>
-  <si>
-    <t>LJQQ3</t>
-  </si>
-  <si>
-    <t>GFSA3</t>
+    <t>SMTO3</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>RDOR3</t>
+  </si>
+  <si>
+    <t>NEOE3</t>
+  </si>
+  <si>
+    <t>BRAP4</t>
+  </si>
+  <si>
+    <t>GGBR4</t>
+  </si>
+  <si>
+    <t>TIMS3</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t>SANB11</t>
+  </si>
+  <si>
+    <t>VIVT3</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>BRKM5</t>
+  </si>
+  <si>
+    <t>MELI34</t>
+  </si>
+  <si>
+    <t>SBSP3</t>
+  </si>
+  <si>
+    <t>NTCO3</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
+    <t>AMZO34</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>CVCB3</t>
+  </si>
+  <si>
+    <t>AMBP3</t>
+  </si>
+  <si>
+    <t>SUZB3</t>
   </si>
   <si>
     <t>EMBR3</t>
   </si>
   <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
     <t>CSNA3</t>
   </si>
   <si>
-    <t>CMIG4</t>
-  </si>
-  <si>
-    <t>ASAI3</t>
-  </si>
-  <si>
-    <t>SUZB3</t>
-  </si>
-  <si>
-    <t>STBP3</t>
-  </si>
-  <si>
-    <t>RENT3</t>
-  </si>
-  <si>
-    <t>RAIZ4</t>
+    <t>CBAV3</t>
   </si>
   <si>
     <t>PCAR3</t>
   </si>
   <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>MRVE3</t>
-  </si>
-  <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>CRFB3</t>
-  </si>
-  <si>
-    <t>CBAV3</t>
-  </si>
-  <si>
-    <t>ALPA4</t>
-  </si>
-  <si>
-    <t>ABEV3</t>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t>PTBL3</t>
   </si>
 </sst>
 </file>
@@ -501,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,22 +565,22 @@
         <v>17</v>
       </c>
       <c r="C2" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>1364</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -570,22 +591,22 @@
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>10546</v>
+        <v>2956</v>
       </c>
       <c r="I3">
-        <v>0.09</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -596,334 +617,334 @@
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>3854</v>
       </c>
       <c r="I4">
-        <v>11.99</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
       <c r="H5">
-        <v>578</v>
+        <v>391</v>
       </c>
       <c r="I5">
-        <v>4.6</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6">
-        <v>510</v>
+        <v>1239</v>
       </c>
       <c r="I6">
-        <v>36.7</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>338</v>
+        <v>1635</v>
       </c>
       <c r="I7">
-        <v>0.03</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>1047</v>
+        <v>2648</v>
       </c>
       <c r="I8">
-        <v>0.03</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>9693</v>
+        <v>9849</v>
       </c>
       <c r="I9">
-        <v>0.03</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10">
-        <v>16758</v>
+        <v>2387</v>
       </c>
       <c r="I10">
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
       <c r="H11">
-        <v>18590</v>
+        <v>864</v>
       </c>
       <c r="I11">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>29644</v>
       </c>
       <c r="I12">
-        <v>8.26</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>3467</v>
       </c>
       <c r="I13">
-        <v>8.26</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>2060</v>
       </c>
       <c r="I14">
-        <v>8.26</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15">
-        <v>171</v>
+        <v>7300</v>
       </c>
       <c r="I15">
-        <v>0.08</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1314</v>
+        <v>25000</v>
       </c>
       <c r="I16">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -934,204 +955,204 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>5928</v>
+        <v>1000</v>
       </c>
       <c r="I17">
-        <v>0.08</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H18">
-        <v>6884</v>
+        <v>156</v>
       </c>
       <c r="I18">
-        <v>0.08</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H19">
-        <v>7272</v>
+        <v>376</v>
       </c>
       <c r="I19">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>45271</v>
+        <v>45280</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>2612</v>
+        <v>504</v>
       </c>
       <c r="I20">
-        <v>9.06</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>117</v>
+        <v>2038</v>
       </c>
       <c r="I21">
-        <v>0.05</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="I22">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>1021</v>
+        <v>782</v>
       </c>
       <c r="I23">
-        <v>0.05</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>7764</v>
+        <v>12195</v>
       </c>
       <c r="I24">
-        <v>0.05</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1142,126 +1163,103 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H25">
-        <v>16776</v>
+        <v>599</v>
       </c>
       <c r="I25">
-        <v>0.05</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2">
-        <v>45279</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26">
-        <v>27501</v>
-      </c>
-      <c r="I26">
-        <v>0.05</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I27">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I28">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>500</v>
+        <v>346</v>
       </c>
       <c r="I29">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1272,48 +1270,48 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I30">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>1932</v>
+        <v>591</v>
       </c>
       <c r="I31">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1324,152 +1322,152 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>288</v>
+        <v>815</v>
       </c>
       <c r="I32">
-        <v>7.3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="I33">
-        <v>7.3</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>647</v>
+        <v>35</v>
       </c>
       <c r="I34">
-        <v>7.3</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>4949</v>
+        <v>11</v>
       </c>
       <c r="I35">
-        <v>7.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>10482</v>
+        <v>137</v>
       </c>
       <c r="I36">
-        <v>7.3</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>29104</v>
+        <v>844</v>
       </c>
       <c r="I37">
-        <v>7.3</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1480,100 +1478,100 @@
         <v>17</v>
       </c>
       <c r="C38" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H38">
-        <v>27</v>
+        <v>12117</v>
       </c>
       <c r="I38">
-        <v>0.03</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H39">
-        <v>54</v>
+        <v>275</v>
       </c>
       <c r="I39">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>17568</v>
+        <v>2128</v>
       </c>
       <c r="I40">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>219</v>
+        <v>13158</v>
       </c>
       <c r="I41">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1584,331 +1582,331 @@
         <v>17</v>
       </c>
       <c r="C42" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>1381</v>
+        <v>115861</v>
       </c>
       <c r="I42">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43">
         <v>37</v>
       </c>
-      <c r="H43">
-        <v>290</v>
-      </c>
       <c r="I43">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H44">
-        <v>394</v>
+        <v>53</v>
       </c>
       <c r="I44">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>3028</v>
+        <v>377</v>
       </c>
       <c r="I45">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>5989</v>
+        <v>1533</v>
       </c>
       <c r="I46">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H47">
-        <v>19229</v>
+        <v>1653</v>
       </c>
       <c r="I47">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H48">
-        <v>52031</v>
+        <v>12947</v>
       </c>
       <c r="I48">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H49">
-        <v>2400</v>
+        <v>154</v>
       </c>
       <c r="I49">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H50">
-        <v>15054</v>
+        <v>1187</v>
       </c>
       <c r="I50">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>38681</v>
+        <v>7363</v>
       </c>
       <c r="I51">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H52">
-        <v>602</v>
+        <v>19444</v>
       </c>
       <c r="I52">
-        <v>17.2</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H53">
-        <v>63736</v>
+        <v>60462</v>
       </c>
       <c r="I53">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
         <v>17</v>
       </c>
       <c r="C54" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H54">
-        <v>210</v>
+        <v>1510</v>
       </c>
       <c r="I54">
         <v>0.7</v>
@@ -1916,54 +1914,366 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="2">
-        <v>45279</v>
+        <v>45272</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H55">
-        <v>2210</v>
+        <v>153</v>
       </c>
       <c r="I55">
-        <v>11</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56">
+        <v>215</v>
+      </c>
+      <c r="I56">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57">
+        <v>1655</v>
+      </c>
+      <c r="I57">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="2">
-        <v>45271</v>
-      </c>
-      <c r="D56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56">
-        <v>315746</v>
-      </c>
-      <c r="I56">
-        <v>0.1</v>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58">
+        <v>10101</v>
+      </c>
+      <c r="I58">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59">
+        <v>26112</v>
+      </c>
+      <c r="I59">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60">
+        <v>82574</v>
+      </c>
+      <c r="I60">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61">
+        <v>1454</v>
+      </c>
+      <c r="I61">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62">
+        <v>3247</v>
+      </c>
+      <c r="I62">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63">
+        <v>53587</v>
+      </c>
+      <c r="I63">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64">
+        <v>20250</v>
+      </c>
+      <c r="I64">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H65">
+        <v>197</v>
+      </c>
+      <c r="I65">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66">
+        <v>35663</v>
+      </c>
+      <c r="I66">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67">
+        <v>1700</v>
+      </c>
+      <c r="I67">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68">
+        <v>165994</v>
+      </c>
+      <c r="I68">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
